--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/30_Erzincan_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/30_Erzincan_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A954FB0-E8EF-4B5A-976E-01F60618A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BD3439-9506-4F3F-9072-CB4C0291CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{A32B49E1-2233-4F88-BDB7-4E09C3BFDA1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{A7DCE6F7-8651-4567-9B96-1762A458A0B7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -895,13 +895,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3135A3C1-3CAA-4578-A97B-B9B3CA7EBC73}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CB95FBC0-57EB-4A7A-8129-848BFF083EC4}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{61A1F5F2-03F9-43B1-B0CA-E51C61369C99}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B238052D-959B-4E7A-9687-997245AEA071}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{28C47E13-45B6-4E88-AFCA-0152DEBB92A8}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{298AAEA6-C077-41E6-AFB1-3B1E33307ADE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{5C8F9717-AF1A-4855-B539-1EBC5DF7828C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C50CA5D2-D9C2-4699-988A-3C89DBA6C314}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{586D77CF-BD4C-4755-9D88-27061B59E9A9}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{C2FE1355-6B4A-443A-B48E-3142EFD166AC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{6DEEB7DD-4C23-47B8-B302-437E23380BE5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{923724AF-9AD2-48C8-8336-C1A5EE529D5B}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{B20BD41B-3304-44BE-8778-7D7F3F7E88E3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{B2A90271-7190-4692-A236-7F78E1D4951F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1271,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C95B68A-B86D-4D24-9016-284141D81490}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634F28B0-76F5-4579-BF37-9F4BFB609D0F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2524,7 +2524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F780EB76-322D-4236-B756-DE1549800C98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5E1D8F-7AC9-447E-BB5A-3A6BD9146AB2}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3772,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E2366E-C71F-4036-92C7-6B6209676255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015A6A01-ADBD-4833-A7F8-60D8BD11C671}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5018,7 +5018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8F8BE5-F3A3-4991-AADF-69ACBFD3BA9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F66417E-973D-4C81-9040-5B8DA4DBFC3F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6262,7 +6262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DED993-D888-4E70-8D73-C35D893E3F07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B94473-BC1E-4B07-B427-FBA3CCE780C3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7515,7 +7515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4505067-0683-4EFC-85A4-F6EF27CD33E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4DE95-5E2E-433C-A8E3-AA08FF711260}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8766,7 +8766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C6CB5F-08D2-424B-A5B7-E9AE96B987BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF98198-03FE-4604-944C-C77C9C0424F1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10017,7 +10017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A72D6A9-AE0D-45BD-B134-130A48DE96CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB5AEFB-808E-40AE-B6D9-3B5386FF84B0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11266,7 +11266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DC5806-E1AB-4CEA-A3DB-BEF3C9315585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188ACAC3-1D35-4CE4-9737-396145CA668E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12515,7 +12515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A757A655-0887-46E7-9251-7AE9A7469A19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D5CDF-0582-4D81-A98D-E010A8F9E049}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13762,7 +13762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6CD582-23E2-4A1D-8335-86B231A79112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6291E6CC-B534-4F57-BC4E-A292AB3AD2FF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15009,7 +15009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA5BB61-ED22-425E-BE15-648038AB739E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC8C04E-4616-41F2-AFB2-BB6882E92C0C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
